--- a/Excel Sheets/test meta analysis 2.xlsx
+++ b/Excel Sheets/test meta analysis 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9C88FD-91D4-4313-86BF-C7E27A3DA5EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A67DCD-F01C-4417-ABB8-BCFB584AB391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{A55E8AFA-B6B1-4B42-99DE-FDBA47AB2FA0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
   <si>
     <t>Study</t>
   </si>
@@ -152,12 +152,6 @@
     <t>n1</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
     <t>n2</t>
   </si>
   <si>
@@ -200,13 +194,118 @@
     <t>golden</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
     <t>X2</t>
+  </si>
+  <si>
+    <t>Beck et al 2018</t>
+  </si>
+  <si>
+    <t>Melospiza melodia</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>light brown</t>
+  </si>
+  <si>
+    <t>dark brown</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>Cassidy et al 2017</t>
+  </si>
+  <si>
+    <t>Canis lupus</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Horton et al 2014</t>
+  </si>
+  <si>
+    <t>Zonotrichia albicollis</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>females</t>
+  </si>
+  <si>
+    <t>latency to respond(min)</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>mean1</t>
+  </si>
+  <si>
+    <t>sd1</t>
+  </si>
+  <si>
+    <t>se1</t>
+  </si>
+  <si>
+    <t>se2</t>
+  </si>
+  <si>
+    <t>mean2</t>
+  </si>
+  <si>
+    <t>sd2</t>
+  </si>
+  <si>
+    <t>closest approach(m)</t>
+  </si>
+  <si>
+    <t>McGraw et al 2006</t>
+  </si>
+  <si>
+    <t>Carpodacus mexicanus</t>
+  </si>
+  <si>
+    <t>non-breeding</t>
+  </si>
+  <si>
+    <t>drab red</t>
+  </si>
+  <si>
+    <t>bright red</t>
+  </si>
+  <si>
+    <t>encounters won</t>
+  </si>
+  <si>
+    <t>Stutchbury 1992</t>
+  </si>
+  <si>
+    <t>Progne subis</t>
+  </si>
+  <si>
+    <t>breeding</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>bright blue</t>
   </si>
 </sst>
 </file>
@@ -558,23 +657,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357F2632-BE16-4312-9E4A-7307C1983D21}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.40625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.04296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.04296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" customWidth="1"/>
+    <col min="11" max="11" width="12.58984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.58984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,22 +738,34 @@
         <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="V1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="W1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
         <v>39</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -671,7 +785,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
@@ -707,7 +821,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -727,10 +841,10 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
@@ -741,61 +855,64 @@
       <c r="L3" t="s">
         <v>37</v>
       </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
       <c r="T3">
         <v>8</v>
       </c>
       <c r="U3">
         <v>-0.43099999999999999</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.66749999999999998</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>8</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.5</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>0.66749999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
         <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M4">
         <v>34</v>
@@ -816,45 +933,42 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M5">
         <v>99</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O5">
         <v>5.03</v>
@@ -864,6 +978,433 @@
       </c>
       <c r="R5">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6">
+        <v>0.247</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>31</v>
+      </c>
+      <c r="R6">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7">
+        <v>292</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.01</v>
+      </c>
+      <c r="AB7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8">
+        <v>-0.1</v>
+      </c>
+      <c r="R8">
+        <v>0.98</v>
+      </c>
+      <c r="T8">
+        <v>15</v>
+      </c>
+      <c r="U8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.3</v>
+      </c>
+      <c r="X8">
+        <v>15</v>
+      </c>
+      <c r="Y8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9">
+        <v>3.1</v>
+      </c>
+      <c r="R9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T9">
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <v>4.5</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>15</v>
+      </c>
+      <c r="Y9">
+        <v>1.3</v>
+      </c>
+      <c r="Z9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10">
+        <v>-0.2</v>
+      </c>
+      <c r="R10">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>1.6</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+      <c r="X10">
+        <v>15</v>
+      </c>
+      <c r="Y10">
+        <v>1.6</v>
+      </c>
+      <c r="Z10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11">
+        <v>2.79</v>
+      </c>
+      <c r="R11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="V11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X11">
+        <v>15</v>
+      </c>
+      <c r="Y11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12">
+        <v>-1.72</v>
+      </c>
+      <c r="R12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Sheets/test meta analysis 2.xlsx
+++ b/Excel Sheets/test meta analysis 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A67DCD-F01C-4417-ABB8-BCFB584AB391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB10B5A-2501-4A3E-AD3B-533992FE0EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{A55E8AFA-B6B1-4B42-99DE-FDBA47AB2FA0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>Study</t>
   </si>
@@ -194,9 +194,6 @@
     <t>golden</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>X2</t>
   </si>
   <si>
@@ -293,19 +290,19 @@
     <t>encounters won</t>
   </si>
   <si>
-    <t>Stutchbury 1992</t>
-  </si>
-  <si>
-    <t>Progne subis</t>
-  </si>
-  <si>
-    <t>breeding</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>bright blue</t>
+    <t>Cothers and Cummings 2015</t>
+  </si>
+  <si>
+    <t>light red</t>
+  </si>
+  <si>
+    <t>call latency(sec)</t>
+  </si>
+  <si>
+    <t>Wald</t>
+  </si>
+  <si>
+    <t>Oophaga pumilio</t>
   </si>
 </sst>
 </file>
@@ -660,13 +657,13 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.58984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.40625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.04296875" bestFit="1" customWidth="1"/>
@@ -738,31 +735,31 @@
         <v>38</v>
       </c>
       <c r="U1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" t="s">
         <v>73</v>
-      </c>
-      <c r="V1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" t="s">
-        <v>74</v>
       </c>
       <c r="X1" t="s">
         <v>39</v>
       </c>
       <c r="Y1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>78</v>
-      </c>
       <c r="AB1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" t="s">
         <v>65</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.75">
@@ -956,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -968,7 +965,7 @@
         <v>99</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O5">
         <v>5.03</v>
@@ -982,19 +979,19 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -1012,7 +1009,7 @@
         <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6">
         <v>67</v>
@@ -1035,10 +1032,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1065,13 +1062,13 @@
         <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M7">
         <v>292</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O7">
         <v>-0.38400000000000001</v>
@@ -1088,13 +1085,13 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -1115,13 +1112,13 @@
         <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8">
         <v>-0.1</v>
@@ -1150,13 +1147,13 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1168,7 +1165,7 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
@@ -1177,13 +1174,13 @@
         <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M9">
         <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O9">
         <v>3.1</v>
@@ -1212,13 +1209,13 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1239,13 +1236,13 @@
         <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10">
         <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10">
         <v>-0.2</v>
@@ -1274,13 +1271,13 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1292,7 +1289,7 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
@@ -1301,13 +1298,13 @@
         <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O11">
         <v>2.79</v>
@@ -1336,19 +1333,19 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
       <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
         <v>83</v>
       </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
@@ -1363,16 +1360,16 @@
         <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M12">
         <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O12">
         <v>-1.72</v>
@@ -1383,16 +1380,16 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1403,8 +1400,26 @@
       <c r="I13" t="s">
         <v>46</v>
       </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
       <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13">
+        <v>51</v>
+      </c>
+      <c r="N13" t="s">
         <v>88</v>
+      </c>
+      <c r="O13">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="R13">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Sheets/test meta analysis 2.xlsx
+++ b/Excel Sheets/test meta analysis 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB10B5A-2501-4A3E-AD3B-533992FE0EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E710789-7D1C-4EEC-9EED-2DCB6CBA53B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{A55E8AFA-B6B1-4B42-99DE-FDBA47AB2FA0}"/>
   </bookViews>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357F2632-BE16-4312-9E4A-7307C1983D21}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1135,6 +1135,10 @@
       <c r="V8">
         <v>0.3</v>
       </c>
+      <c r="W8">
+        <f>V8/SQRT(T8)</f>
+        <v>7.7459666924148338E-2</v>
+      </c>
       <c r="X8">
         <v>15</v>
       </c>
@@ -1143,6 +1147,10 @@
       </c>
       <c r="Z8">
         <v>0.2</v>
+      </c>
+      <c r="AA8">
+        <f>Z8/SQRT(X8)</f>
+        <v>5.1639777949432225E-2</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.75">
@@ -1197,6 +1205,10 @@
       <c r="V9">
         <v>1</v>
       </c>
+      <c r="W9">
+        <f t="shared" ref="W9:W11" si="0">V9/SQRT(T9)</f>
+        <v>0.2581988897471611</v>
+      </c>
       <c r="X9">
         <v>15</v>
       </c>
@@ -1205,6 +1217,10 @@
       </c>
       <c r="Z9">
         <v>0.2</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" ref="AA9:AA11" si="1">Z9/SQRT(X9)</f>
+        <v>5.1639777949432225E-2</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.75">
@@ -1259,6 +1275,10 @@
       <c r="V10">
         <v>0.5</v>
       </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>0.12909944487358055</v>
+      </c>
       <c r="X10">
         <v>15</v>
       </c>
@@ -1267,6 +1287,10 @@
       </c>
       <c r="Z10">
         <v>0.4</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>0.10327955589886445</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.75">
@@ -1321,6 +1345,10 @@
       <c r="V11">
         <v>2.2000000000000002</v>
       </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>0.5680375574437545</v>
+      </c>
       <c r="X11">
         <v>15</v>
       </c>
@@ -1329,6 +1357,10 @@
       </c>
       <c r="Z11">
         <v>0.7</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>0.18073922282301277</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.75">

--- a/Excel Sheets/test meta analysis 2.xlsx
+++ b/Excel Sheets/test meta analysis 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E710789-7D1C-4EEC-9EED-2DCB6CBA53B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9EF6FE-5476-4C3C-8445-E0743AA5FEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{A55E8AFA-B6B1-4B42-99DE-FDBA47AB2FA0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
   <si>
     <t>Study</t>
   </si>
@@ -80,9 +80,6 @@
     <t>df2</t>
   </si>
   <si>
-    <t>r2</t>
-  </si>
-  <si>
     <t>Rose and Soole 2020</t>
   </si>
   <si>
@@ -299,10 +296,10 @@
     <t>call latency(sec)</t>
   </si>
   <si>
-    <t>Wald</t>
-  </si>
-  <si>
     <t>Oophaga pumilio</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -656,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357F2632-BE16-4312-9E4A-7307C1983D21}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:R4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -681,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -729,78 +726,78 @@
         <v>12</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" t="s">
         <v>74</v>
       </c>
-      <c r="W1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>77</v>
-      </c>
       <c r="AB1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" t="s">
         <v>64</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2">
         <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2">
         <v>6.45</v>
@@ -820,37 +817,37 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
       </c>
       <c r="M3">
         <v>16</v>
@@ -876,46 +873,46 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
         <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
       </c>
       <c r="M4">
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4">
         <v>2.94</v>
@@ -932,40 +929,40 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5">
         <v>99</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O5">
         <v>5.03</v>
@@ -979,43 +976,43 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
         <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>59</v>
       </c>
       <c r="M6">
         <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6">
         <v>0.247</v>
@@ -1032,43 +1029,43 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
       </c>
       <c r="M7">
         <v>292</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7">
         <v>-0.38400000000000001</v>
@@ -1085,40 +1082,40 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>45</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O8">
         <v>-0.1</v>
@@ -1155,40 +1152,40 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
         <v>69</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>70</v>
       </c>
       <c r="M9">
         <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9">
         <v>3.1</v>
@@ -1225,40 +1222,40 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
         <v>44</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>46</v>
       </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M10">
         <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O10">
         <v>-0.2</v>
@@ -1295,40 +1292,40 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11">
         <v>2.79</v>
@@ -1365,43 +1362,43 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="L12" t="s">
         <v>83</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" t="s">
-        <v>84</v>
       </c>
       <c r="M12">
         <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O12">
         <v>-1.72</v>
@@ -1412,46 +1409,49 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
         <v>86</v>
       </c>
-      <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>87</v>
-      </c>
       <c r="M13">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="O13">
-        <v>4.0199999999999996</v>
+        <v>4.26</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>4.4999999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
   </sheetData>
